--- a/employeeApplication/index.xlsx
+++ b/employeeApplication/index.xlsx
@@ -115,12 +115,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="179" formatCode="yyyy\-m\-d\ hh:mm:ss"/>
   </numFmts>
@@ -153,6 +153,44 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -181,45 +219,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,61 +294,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,24 +310,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -340,19 +352,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,67 +466,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,48 +491,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,6 +544,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -572,199 +616,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -784,6 +784,9 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1105,10 +1108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J3"/>
+      <selection activeCell="A1" sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="2"/>
@@ -1116,7 +1119,7 @@
     <col min="1" max="1" width="29.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:10">
+    <row r="1" ht="15" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,9 +1147,26 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
     </row>
     <row r="2" ht="26.25" spans="1:10">
       <c r="A2" s="2" t="s">
@@ -1218,7 +1238,7 @@
   <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A1" sqref="A1:AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1277,20 +1297,20 @@
         <v>30</v>
       </c>
       <c r="P1" s="1"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+    </row>
+    <row r="2" ht="13.5" spans="1:28">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1320,7 +1340,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" ht="13.5" spans="1:28">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1350,7 +1370,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" ht="13.5" spans="1:28">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
